--- a/api-server-django/api/assessment/sample/level1.xlsx
+++ b/api-server-django/api/assessment/sample/level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25734553-4851-40E6-ADE3-0B7FDF62EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC1B5F9-1AD6-4E91-BF08-AD5E58FD24FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
-  <si>
-    <t>October, 2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Mentor</t>
   </si>
@@ -289,9 +286,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="0\%"/>
+    <numFmt numFmtId="166" formatCode="mmmm/yy"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -920,9 +918,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1087,193 +1082,6 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1287,8 +1095,198 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,8 +1756,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5947516" y="18143"/>
-          <a:ext cx="3873522" cy="1012920"/>
+          <a:off x="5977005" y="18143"/>
+          <a:ext cx="3874112" cy="1021177"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -2081,8 +2079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5944309" y="99060"/>
-          <a:ext cx="3871450" cy="1033594"/>
+          <a:off x="5937596" y="99060"/>
+          <a:ext cx="3877894" cy="1027150"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -2174,8 +2172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5944309" y="99060"/>
-          <a:ext cx="3875737" cy="1010705"/>
+          <a:off x="5937596" y="99060"/>
+          <a:ext cx="3882181" cy="1004261"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -2983,22 +2981,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>513709</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>102741</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1238039</xdr:colOff>
+      <xdr:colOff>992172</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>92155</xdr:rowOff>
+      <xdr:rowOff>174492</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9">
+        <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9453E21E-FD4A-4DC8-A324-19DB4B384EDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867DA844-D5F7-45E3-9F89-81924E47AAB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3004,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5933327" y="102741"/>
+          <a:off x="5689600" y="177800"/>
           <a:ext cx="3875072" cy="1025392"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
@@ -3014,10 +3012,10 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Picture 10">
+          <xdr:cNvPr id="4" name="Picture 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82674BF5-2C2E-0DE6-82BB-266710701851}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9920ECD0-03F3-33AB-EFA4-58552AE92218}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3043,10 +3041,10 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="Picture 11">
+          <xdr:cNvPr id="5" name="Picture 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB2DA3F-4125-1B91-7256-FFAEB46002C3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3E9DEC-9816-3182-F0D2-0713FC42CA52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3363,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9BE586-3C54-41A9-80C8-C44D336AB6A8}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="38" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3404,8 +3402,9 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="145">
+        <f ca="1">TODAY()</f>
+        <v>45240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3425,7 +3424,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3446,76 +3445,76 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A10" s="5"/>
-      <c r="B10" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="24" t="s">
-        <v>24</v>
+      <c r="B10" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A11" s="5"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3524,28 +3523,28 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,72 +3579,72 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,7 +3659,7 @@
     </row>
     <row r="28" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3670,32 +3669,32 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
       <c r="H31" s="5"/>
       <c r="L31"/>
     </row>
@@ -3732,7 +3731,7 @@
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3742,7 +3741,7 @@
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3752,17 +3751,17 @@
     </row>
     <row r="37" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3802,46 +3801,46 @@
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
+      <c r="B42" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
+      <c r="B45" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3877,7 +3876,7 @@
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3890,19 +3889,19 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
@@ -3910,38 +3909,38 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="A53" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3971,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="86" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:G49"/>
+    <sheetView zoomScale="66" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4012,8 +4011,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="145">
+        <f ca="1">Page1!B3</f>
+        <v>45240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4033,7 +4033,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
@@ -4055,8 +4055,8 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4065,14 +4065,14 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104">
+      <c r="D8" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102">
         <v>89</v>
       </c>
       <c r="G8" s="5"/>
@@ -4082,30 +4082,30 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="141" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
       <c r="H9" s="5"/>
       <c r="J9" s="4">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="62">
+      <c r="D10" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="61">
         <v>87</v>
       </c>
       <c r="H10" s="5"/>
@@ -4114,26 +4114,26 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="142">
+      <c r="A11" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="78">
         <v>37064</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="62">
+      <c r="D11" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="61">
         <v>78</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4142,65 +4142,65 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="141" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="5"/>
-      <c r="N13" s="19" t="s">
-        <v>12</v>
+      <c r="N13" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="141" t="s">
-        <v>52</v>
-      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="143">
+      <c r="A17" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="79">
         <v>9874598745</v>
       </c>
       <c r="C17" s="5"/>
@@ -4208,112 +4208,112 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144" t="s">
+      <c r="B21" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="145" t="s">
-        <v>57</v>
-      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="145"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="145"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
+      <c r="D24" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="141"/>
+      <c r="A26" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="77"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4322,11 +4322,11 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="140">
+      <c r="A27" s="76">
         <v>1</v>
       </c>
-      <c r="B27" s="141" t="s">
-        <v>59</v>
+      <c r="B27" s="77" t="s">
+        <v>58</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -4336,27 +4336,27 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="140">
+      <c r="A28" s="76">
         <v>2</v>
       </c>
-      <c r="B28" s="141" t="s">
-        <v>60</v>
+      <c r="B28" s="77" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="D28" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140">
+      <c r="A29" s="76">
         <v>3</v>
       </c>
-      <c r="B29" s="141" t="s">
-        <v>61</v>
+      <c r="B29" s="77" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4366,131 +4366,131 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="140">
+      <c r="A30" s="76">
         <v>4</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="76">
+        <v>5</v>
+      </c>
+      <c r="B31" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="140">
-        <v>5</v>
-      </c>
-      <c r="B31" s="141" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="140" t="s">
+      <c r="B33" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="145" t="s">
-        <v>65</v>
-      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="109"/>
       <c r="H33" s="5"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="86" t="s">
+      <c r="D34" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="76"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="138"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="88"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="109"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -4499,116 +4499,116 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
+      <c r="D41" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="D42" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
+      <c r="D45" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
+      <c r="D46" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -4626,52 +4626,41 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="A53" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="D30:G31"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D19:G21"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="D38:G39"/>
@@ -4683,6 +4672,17 @@
     <mergeCell ref="D44:I44"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:G43"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D19:G21"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="D30:G31"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F16"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4695,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4E31DE-DF85-47CD-8457-D5990C251C7C}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="64" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:G43"/>
+    <sheetView zoomScale="64" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4736,8 +4736,9 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="145">
+        <f ca="1">Page1!B3</f>
+        <v>45240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4757,7 +4758,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
@@ -4780,41 +4781,41 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="62">
+      <c r="B7" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="61">
         <v>25</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="71"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="74">
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="123"/>
+      <c r="F9" s="73">
         <v>89</v>
       </c>
       <c r="G9" s="5"/>
@@ -4822,25 +4823,25 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="71"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="62">
+      <c r="B11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="61">
         <v>25</v>
       </c>
       <c r="G11" s="5"/>
@@ -4848,40 +4849,40 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="B13" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="50" t="s">
-        <v>27</v>
+      <c r="B15" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4892,24 +4893,24 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
+      <c r="B16" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,11 +4934,11 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -4945,122 +4946,122 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="70"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
+      <c r="B23" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="117"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="124"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="B25" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
+      <c r="B29" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5075,11 +5076,11 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -5087,25 +5088,25 @@
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
+      <c r="B34" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="5"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5140,56 +5141,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="B39" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
+      <c r="B40" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5283,31 +5284,31 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="A53" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5338,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9B3ED-93E2-4F79-AE09-7AA52B7CABB6}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="71" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="71" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5379,8 +5380,9 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="145">
+        <f ca="1">Page1!B3</f>
+        <v>45240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5400,7 +5402,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
@@ -5423,67 +5425,67 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="62">
+      <c r="B7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="61">
         <v>25</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="62">
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="61">
         <v>25</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="71"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="74">
+      <c r="B11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="123"/>
+      <c r="F11" s="73">
         <v>89</v>
       </c>
       <c r="G11" s="5"/>
@@ -5491,40 +5493,40 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="B13" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="50" t="s">
-        <v>27</v>
+      <c r="B15" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5535,24 +5537,24 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
+      <c r="B16" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,11 +5578,11 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -5588,122 +5590,122 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="70"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
+      <c r="B23" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="117"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="124"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="B25" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
+      <c r="B29" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5718,11 +5720,11 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -5730,25 +5732,25 @@
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
+      <c r="B34" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="5"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5783,56 +5785,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="B39" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
+      <c r="B40" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5926,31 +5928,31 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="A53" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5982,7 +5984,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView zoomScale="47" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="G5" sqref="G4:G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6022,8 +6024,9 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="145">
+        <f ca="1">Page1!B3</f>
+        <v>45240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6043,7 +6046,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
@@ -6066,142 +6069,142 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="5"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -6213,12 +6216,12 @@
     </row>
     <row r="20" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="5"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -6230,14 +6233,14 @@
     </row>
     <row r="21" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
+      <c r="B21" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="5"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -6249,14 +6252,14 @@
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="5"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -6268,12 +6271,12 @@
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="5"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -6285,12 +6288,12 @@
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="5"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -6302,12 +6305,12 @@
     </row>
     <row r="25" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="5"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -6319,14 +6322,14 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
+      <c r="B26" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
       <c r="H26" s="5"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -6338,14 +6341,14 @@
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>1</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="5"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -6357,14 +6360,14 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>2</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="5"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -6376,14 +6379,14 @@
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>3</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="5"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -6395,12 +6398,12 @@
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="5"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -6412,12 +6415,12 @@
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -6429,14 +6432,14 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
+      <c r="B32" s="131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
       <c r="H32" s="5"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -6448,12 +6451,12 @@
     </row>
     <row r="33" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="5"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -6465,12 +6468,12 @@
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="5"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -6482,12 +6485,12 @@
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="5"/>
       <c r="M35"/>
       <c r="N35"/>
@@ -6499,14 +6502,14 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
+      <c r="B36" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
       <c r="H36" s="5"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -6518,7 +6521,7 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>1</v>
       </c>
       <c r="C37" s="5"/>
@@ -6537,14 +6540,14 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="123">
+      <c r="B38" s="128">
         <v>2</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
       <c r="H38" s="5"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -6556,14 +6559,14 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="123">
+      <c r="B39" s="128">
         <v>3</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
       <c r="H39" s="5"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -6575,12 +6578,12 @@
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="5"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -6592,12 +6595,12 @@
     </row>
     <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="5"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -6609,14 +6612,14 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
+      <c r="B42" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
       <c r="H42" s="5"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -6628,12 +6631,12 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
       <c r="H43" s="5"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -6645,12 +6648,12 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
       <c r="H44" s="5"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -6662,12 +6665,12 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
       <c r="H45" s="5"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -6679,12 +6682,12 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
       <c r="H46" s="5"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -6696,12 +6699,12 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
       <c r="H47" s="5"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -6713,12 +6716,12 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
       <c r="H48" s="5"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -6730,12 +6733,12 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
       <c r="H49" s="5"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -6747,12 +6750,12 @@
     </row>
     <row r="50" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="5"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -6764,60 +6767,53 @@
     </row>
     <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:19" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="A53" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B42:G49"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="B15:E17"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B7:E11"/>
     <mergeCell ref="E19:G21"/>
     <mergeCell ref="B26:G26"/>
@@ -6826,6 +6822,13 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B42:G49"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="B15:E17"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6838,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C92B80-4D6C-4085-8E4C-2B1CEFCFF19A}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6879,8 +6882,9 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="145">
+        <f ca="1">Page1!B3</f>
+        <v>45240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6900,7 +6904,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>5</v>
       </c>
       <c r="B5" s="5"/>
@@ -6923,59 +6927,59 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
+      <c r="B9" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="59" t="s">
-        <v>40</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -6991,442 +6995,446 @@
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="129" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="129" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="131"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="49"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="5"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
+      <c r="B46" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
+      <c r="B48" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="A53" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="B46:G47"/>
     <mergeCell ref="E15:F15"/>
@@ -7443,10 +7451,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/api-server-django/api/assessment/sample/level1.xlsx
+++ b/api-server-django/api/assessment/sample/level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC1B5F9-1AD6-4E91-BF08-AD5E58FD24FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDC367-242B-4D6A-9C36-A2A477324D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="9" r:id="rId1"/>
@@ -86,13 +86,7 @@
     <t xml:space="preserve">Your middle 3 Virtues (also referred as your Push Virtues)					</t>
   </si>
   <si>
-    <t>You express the Virtue of Hope, Faith and Love, with a bit of struggle, only when the situation demands from you. The expression of these virtues may not have a signifcant bearing on the outcomes you tend to achieve.</t>
-  </si>
-  <si>
     <t>Your Bottom 3 Virtues (also referred as your Pain Virtues)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You express the Virtue of Friendliness, Hope and Fortitude with huge effort and is very unnatural for you. Though the situation may call for these virtues, you find them stressful to express, thus having the least impact on the outcomes you want to produce. </t>
   </si>
   <si>
     <t xml:space="preserve">Your Career Preferences 		</t>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>"A principal molds the hearts and minds of students, leaving an indelible mark on their lives."</t>
+  </si>
+  <si>
+    <t>You express the Virtue of middle_three_virtues with a bit of struggle, only when the situation demands from you. The expression of these virtues may not have a signifcant bearing on the outcomes you tend to achieve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You express the Virtue of bottom_three_virtues with huge effort and is very unnatural for you. Though the situation may call for these virtues, you find them stressful to express, thus having the least impact on the outcomes you want to produce. </t>
   </si>
 </sst>
 </file>
@@ -557,12 +557,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,6 +583,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -911,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -965,17 +965,17 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -988,45 +988,45 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1034,13 +1034,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1049,7 +1049,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,12 +1058,6 @@
     <xf numFmtId="165" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1082,18 +1076,30 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="35" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="35" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1126,7 +1132,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1153,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1180,113 +1186,110 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,55 +1323,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1250017</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>191126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>458779</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167436</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C0DAA1-CF88-41A4-4DAC-B6C08A3E789D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="7060"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1866102" y="4536147"/>
-          <a:ext cx="7185443" cy="5326000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>470899</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1394,7 +1348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1438,7 +1392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1482,7 +1436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1526,7 +1480,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1570,7 +1524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1614,7 +1568,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1658,7 +1612,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1707,7 +1661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1756,8 +1710,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5977005" y="18143"/>
-          <a:ext cx="3874112" cy="1021177"/>
+          <a:off x="6000847" y="18143"/>
+          <a:ext cx="3870536" cy="1027853"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -1776,7 +1730,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1805,7 +1759,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1821,6 +1775,56 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97276</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1404836</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100CBA62-7529-4952-30BB-80E78B1B0B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3080425" y="4653064"/>
+          <a:ext cx="3771900" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2079,8 +2083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5937596" y="99060"/>
-          <a:ext cx="3877894" cy="1027150"/>
+          <a:off x="5928360" y="99060"/>
+          <a:ext cx="3872597" cy="1027965"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -2172,8 +2176,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5937596" y="99060"/>
-          <a:ext cx="3882181" cy="1004261"/>
+          <a:off x="5928360" y="99060"/>
+          <a:ext cx="3876884" cy="1005076"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -2862,8 +2866,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5914578" y="0"/>
-          <a:ext cx="3875072" cy="1025392"/>
+          <a:off x="5892529" y="0"/>
+          <a:ext cx="3876855" cy="1022474"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -3361,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9BE586-3C54-41A9-80C8-C44D336AB6A8}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A9" zoomScale="47" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3402,7 +3406,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="145">
+      <c r="B3" s="68">
         <f ca="1">TODAY()</f>
         <v>45240</v>
       </c>
@@ -3445,12 +3449,12 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,45 +3479,45 @@
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A10" s="5"/>
-      <c r="B10" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="B10" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A11" s="5"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="21"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="22"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="22"/>
       <c r="H13" s="5"/>
     </row>
@@ -3529,22 +3533,22 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3579,72 +3583,72 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,32 +3673,32 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="5"/>
       <c r="L31"/>
     </row>
@@ -3801,46 +3805,46 @@
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
+      <c r="B42" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
+      <c r="B45" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,22 +3914,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -3970,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4011,7 +4015,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="145">
+      <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -4055,8 +4059,8 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4065,14 +4069,14 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102">
+      <c r="E8" s="103"/>
+      <c r="F8" s="104">
         <v>89</v>
       </c>
       <c r="G8" s="5"/>
@@ -4082,29 +4086,29 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>46</v>
+      <c r="A9" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="H9" s="5"/>
       <c r="J9" s="4">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="61">
         <v>87</v>
       </c>
@@ -4114,17 +4118,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="78">
+      <c r="A11" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="75">
         <v>37064</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="61">
         <v>78</v>
       </c>
@@ -4132,8 +4136,8 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4142,11 +4146,11 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>49</v>
+      <c r="A13" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="51"/>
@@ -4159,48 +4163,48 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>51</v>
+      <c r="A15" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="D15" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="5"/>
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="79">
+      <c r="A17" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="76">
         <v>9874598745</v>
       </c>
       <c r="C17" s="5"/>
@@ -4211,11 +4215,11 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="5"/>
       <c r="D18" s="49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -4223,48 +4227,48 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B21" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="5"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -4273,11 +4277,11 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="5"/>
       <c r="D23" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
@@ -4285,35 +4289,35 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="77"/>
+      <c r="A26" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="74"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4322,11 +4326,11 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76">
+      <c r="A27" s="73">
         <v>1</v>
       </c>
-      <c r="B27" s="77" t="s">
-        <v>58</v>
+      <c r="B27" s="74" t="s">
+        <v>56</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -4336,15 +4340,15 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76">
+      <c r="A28" s="73">
         <v>2</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>59</v>
+      <c r="B28" s="74" t="s">
+        <v>57</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
@@ -4352,11 +4356,11 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76">
+      <c r="A29" s="73">
         <v>3</v>
       </c>
-      <c r="B29" s="77" t="s">
-        <v>60</v>
+      <c r="B29" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4366,131 +4370,131 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76">
+      <c r="A30" s="73">
         <v>4</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73">
+        <v>5</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76">
-        <v>5</v>
-      </c>
-      <c r="B31" s="77" t="s">
+      <c r="B33" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="92" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="109"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="5"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="105" t="s">
+      <c r="D34" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:18" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="109"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="111"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="107"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="109"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -4499,114 +4503,114 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
+      <c r="D41" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="113" t="s">
+      <c r="D42" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="53"/>
       <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
       <c r="H43" s="53"/>
       <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
+      <c r="D45" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
+      <c r="D46" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="5"/>
       <c r="D50" s="17"/>
       <c r="E50" s="5"/>
@@ -4614,10 +4618,12 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4627,22 +4633,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -4660,7 +4666,7 @@
       <c r="F56" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="D38:G39"/>
@@ -4669,9 +4675,8 @@
     <mergeCell ref="D34:G35"/>
     <mergeCell ref="D46:G49"/>
     <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D44:I44"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="D42:G44"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D10:E10"/>
@@ -4695,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4E31DE-DF85-47CD-8457-D5990C251C7C}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" zoomScale="64" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4736,7 +4741,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="145">
+      <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -4782,13 +4787,13 @@
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="59"/>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="103"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="61">
         <v>25</v>
       </c>
@@ -4797,25 +4802,25 @@
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="71"/>
+      <c r="B8" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="123"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="70"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123" t="s">
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="73">
+      <c r="E9" s="124"/>
+      <c r="F9" s="67">
         <v>89</v>
       </c>
       <c r="G9" s="5"/>
@@ -4825,22 +4830,22 @@
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="70"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="61">
         <v>25</v>
       </c>
@@ -4859,30 +4864,30 @@
     </row>
     <row r="13" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4893,24 +4898,24 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4935,7 +4940,7 @@
     <row r="20" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -4946,112 +4951,112 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="68"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="69"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="124"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,25 +5093,25 @@
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
       <c r="H34" s="5"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5141,56 +5146,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
+      <c r="B39" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
+      <c r="B40" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5203,14 +5208,14 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5284,16 +5289,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -5339,8 +5344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9B3ED-93E2-4F79-AE09-7AA52B7CABB6}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A28" zoomScale="71" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5380,7 +5385,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="145">
+      <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -5426,13 +5431,13 @@
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="59"/>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="103"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="61">
         <v>25</v>
       </c>
@@ -5441,24 +5446,24 @@
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="71"/>
+      <c r="B8" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="123"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="70"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="15"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="103" t="s">
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="61">
         <v>25</v>
       </c>
@@ -5469,23 +5474,23 @@
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="70"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="73">
+      <c r="E11" s="124"/>
+      <c r="F11" s="67">
         <v>89</v>
       </c>
       <c r="G11" s="5"/>
@@ -5503,30 +5508,30 @@
     </row>
     <row r="13" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5537,24 +5542,24 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,7 +5584,7 @@
     <row r="20" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -5590,112 +5595,112 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="68"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="69"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="124"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5732,25 +5737,25 @@
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
       <c r="H34" s="5"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,56 +5790,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
+      <c r="B39" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
+      <c r="B40" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5847,14 +5852,14 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5928,16 +5933,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -5983,8 +5988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842EA94-A732-4734-AB0F-54444B0B1E8B}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView zoomScale="47" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6024,7 +6029,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="145">
+      <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -6069,52 +6074,52 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
+      <c r="B7" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="5"/>
       <c r="G9" s="14"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="5"/>
@@ -6141,11 +6146,11 @@
     </row>
     <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="B14" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6153,32 +6158,32 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="5"/>
@@ -6188,11 +6193,11 @@
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
+      <c r="E18" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6200,11 +6205,11 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="127" t="s">
+      <c r="E19" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
       <c r="H19" s="5"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -6219,9 +6224,9 @@
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
       <c r="H20" s="5"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -6233,14 +6238,14 @@
     </row>
     <row r="21" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="B21" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
       <c r="H21" s="5"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -6252,12 +6257,12 @@
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="5"/>
@@ -6271,10 +6276,10 @@
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="5"/>
@@ -6288,10 +6293,10 @@
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="5"/>
@@ -6322,14 +6327,14 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
       <c r="H26" s="5"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -6432,14 +6437,14 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
+      <c r="B32" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="5"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -6451,12 +6456,12 @@
     </row>
     <row r="33" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="5"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -6502,14 +6507,14 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
+      <c r="B36" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="5"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -6540,14 +6545,14 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="128">
+      <c r="B38" s="130">
         <v>2</v>
       </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
       <c r="H38" s="5"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -6559,14 +6564,14 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="128">
+      <c r="B39" s="130">
         <v>3</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="5"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -6612,14 +6617,14 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
+      <c r="B42" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
       <c r="H42" s="5"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -6631,12 +6636,12 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
       <c r="H43" s="5"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -6648,12 +6653,12 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
       <c r="H44" s="5"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -6665,12 +6670,12 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
       <c r="H45" s="5"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -6682,12 +6687,12 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
       <c r="H46" s="5"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -6699,12 +6704,12 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
       <c r="H47" s="5"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -6716,12 +6721,12 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
       <c r="H48" s="5"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -6733,12 +6738,12 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
       <c r="H49" s="5"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -6780,22 +6785,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:19" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -6841,7 +6846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C92B80-4D6C-4085-8E4C-2B1CEFCFF19A}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
@@ -6882,7 +6887,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="145">
+      <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -6927,12 +6932,12 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
+      <c r="B7" s="131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="5"/>
@@ -6949,37 +6954,37 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
+      <c r="B9" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="30"/>
       <c r="C11" s="57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="24"/>
       <c r="G11" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -6996,10 +7001,10 @@
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
@@ -7008,18 +7013,18 @@
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="24"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
     </row>
@@ -7028,8 +7033,8 @@
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="19"/>
       <c r="H16" s="5"/>
     </row>
@@ -7038,8 +7043,8 @@
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
     </row>
@@ -7075,16 +7080,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
+      <c r="B21" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="140"/>
+      <c r="F21" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="141"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7100,8 +7105,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="19"/>
       <c r="F23" s="42"/>
       <c r="G23" s="44"/>
@@ -7110,8 +7115,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="19"/>
       <c r="F24" s="42"/>
       <c r="G24" s="44"/>
@@ -7120,8 +7125,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="41"/>
       <c r="F25" s="43"/>
       <c r="G25" s="45"/>
@@ -7130,10 +7135,10 @@
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -7142,16 +7147,16 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="24"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="24"/>
       <c r="F28" s="32"/>
       <c r="G28" s="19"/>
@@ -7330,46 +7335,46 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
+      <c r="B46" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
+      <c r="B48" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7397,22 +7402,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -7431,7 +7436,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E26:F27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -7451,6 +7455,7 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F27"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/api-server-django/api/assessment/sample/level1.xlsx
+++ b/api-server-django/api/assessment/sample/level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDC367-242B-4D6A-9C36-A2A477324D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67554661-7902-4600-8901-EDB410BF23E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="9" r:id="rId1"/>
@@ -1132,6 +1132,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1147,9 +1186,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,42 +1195,6 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1234,26 +1234,41 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1275,21 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3365,7 +3365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9BE586-3C54-41A9-80C8-C44D336AB6A8}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="47" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="47" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -3974,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D42" sqref="D42:G44"/>
     </sheetView>
   </sheetViews>
@@ -4166,11 +4166,11 @@
       <c r="A14" s="73"/>
       <c r="B14" s="74"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
@@ -4182,11 +4182,11 @@
         <v>49</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
@@ -4194,9 +4194,9 @@
       <c r="A16" s="73"/>
       <c r="B16" s="74"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="5"/>
       <c r="H16" s="20"/>
     </row>
@@ -4256,7 +4256,7 @@
       <c r="A21" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="5"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="22" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
-      <c r="B22" s="94"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="5"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="23" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
-      <c r="B23" s="94"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="5"/>
       <c r="D23" s="49" t="s">
         <v>24</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
-      <c r="B24" s="94"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="5"/>
       <c r="D24" s="84" t="s">
         <v>3</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73"/>
-      <c r="B25" s="94"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="5"/>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -4377,12 +4377,12 @@
         <v>59</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4393,103 +4393,103 @@
         <v>60</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="112"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" s="74"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="107" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="111"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="5"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
-      <c r="B34" s="94"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:18" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="73"/>
-      <c r="B35" s="94"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="111"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="99"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="79"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71"/>
       <c r="B37" s="72"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="111"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="109"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="111"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="99"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,11 +4506,11 @@
       <c r="A41" s="71"/>
       <c r="B41" s="72"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -4554,12 +4554,12 @@
       <c r="A45" s="71"/>
       <c r="B45" s="72"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="113" t="s">
+      <c r="D45" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -4567,12 +4567,12 @@
       <c r="A46" s="71"/>
       <c r="B46" s="72"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
@@ -4580,10 +4580,10 @@
       <c r="A47" s="71"/>
       <c r="B47" s="72"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -4591,10 +4591,10 @@
       <c r="A48" s="71"/>
       <c r="B48" s="72"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -4602,10 +4602,10 @@
       <c r="A49" s="71"/>
       <c r="B49" s="72"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,6 +4667,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="D30:G31"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D19:G21"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="D38:G39"/>
@@ -4677,17 +4688,6 @@
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:G44"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D19:G21"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="D30:G31"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F16"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="62"/>
       <c r="H21" s="5"/>
     </row>
@@ -4973,14 +4973,14 @@
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5146,56 +5146,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5595,13 +5595,13 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="62"/>
       <c r="H21" s="5"/>
     </row>
@@ -5617,14 +5617,14 @@
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5790,56 +5790,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842EA94-A732-4734-AB0F-54444B0B1E8B}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:G49"/>
     </sheetView>
   </sheetViews>
@@ -6074,52 +6074,52 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="5"/>
       <c r="G9" s="14"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="5"/>
@@ -6146,11 +6146,11 @@
     </row>
     <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6193,11 +6193,11 @@
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6238,11 +6238,11 @@
     </row>
     <row r="21" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="129"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -6327,14 +6327,14 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
       <c r="H26" s="5"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -6437,14 +6437,14 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
       <c r="H32" s="5"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -6456,12 +6456,12 @@
     </row>
     <row r="33" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="5"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -6507,14 +6507,14 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
       <c r="H36" s="5"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -6545,14 +6545,14 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="130">
+      <c r="B38" s="132">
         <v>2</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
       <c r="H38" s="5"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -6564,14 +6564,14 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="130">
+      <c r="B39" s="132">
         <v>3</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
       <c r="H39" s="5"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -6617,14 +6617,14 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
       <c r="H42" s="5"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -6636,12 +6636,12 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
       <c r="H43" s="5"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -6653,12 +6653,12 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
       <c r="H44" s="5"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -6670,12 +6670,12 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
       <c r="H45" s="5"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -6687,12 +6687,12 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
       <c r="H46" s="5"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -6704,12 +6704,12 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
       <c r="H47" s="5"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -6721,12 +6721,12 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
       <c r="H48" s="5"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -6738,12 +6738,12 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
       <c r="H49" s="5"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -6819,6 +6819,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B42:G49"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="B15:E17"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B7:E11"/>
     <mergeCell ref="E19:G21"/>
     <mergeCell ref="B26:G26"/>
@@ -6827,13 +6834,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B42:G49"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="B15:E17"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6932,12 +6932,12 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="5"/>
@@ -6954,24 +6954,24 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7003,8 +7003,8 @@
       <c r="B13" s="24"/>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
@@ -7013,16 +7013,16 @@
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="24"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="19"/>
@@ -7080,16 +7080,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="141"/>
+      <c r="G21" s="146"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7105,8 +7105,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="136"/>
       <c r="E23" s="19"/>
       <c r="F23" s="42"/>
       <c r="G23" s="44"/>
@@ -7115,8 +7115,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
       <c r="E24" s="19"/>
       <c r="F24" s="42"/>
       <c r="G24" s="44"/>
@@ -7125,8 +7125,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="41"/>
       <c r="F25" s="43"/>
       <c r="G25" s="45"/>
@@ -7137,8 +7137,8 @@
       <c r="B26" s="24"/>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -7147,16 +7147,16 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="24"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="24"/>
       <c r="F28" s="32"/>
       <c r="G28" s="19"/>
@@ -7335,46 +7335,46 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,11 +7436,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B46:G47"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="B7:E7"/>
@@ -7456,6 +7451,11 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B46:G47"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/api-server-django/api/assessment/sample/level1.xlsx
+++ b/api-server-django/api/assessment/sample/level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67554661-7902-4600-8901-EDB410BF23E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE9639-AF25-4630-8DBE-7683D5F8BB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1132,6 +1132,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,9 +1183,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,42 +1195,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1234,26 +1234,47 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1267,29 +1288,8 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3408,7 +3408,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="68">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3974,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:G44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4017,7 +4017,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4166,11 +4166,11 @@
       <c r="A14" s="73"/>
       <c r="B14" s="74"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
@@ -4182,11 +4182,11 @@
         <v>49</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
@@ -4194,9 +4194,9 @@
       <c r="A16" s="73"/>
       <c r="B16" s="74"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="5"/>
       <c r="H16" s="20"/>
     </row>
@@ -4256,7 +4256,7 @@
       <c r="A21" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="94" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="5"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="22" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
-      <c r="B22" s="107"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="5"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="23" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
-      <c r="B23" s="107"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="5"/>
       <c r="D23" s="49" t="s">
         <v>24</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
-      <c r="B24" s="107"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="5"/>
       <c r="D24" s="84" t="s">
         <v>3</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73"/>
-      <c r="B25" s="107"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="5"/>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -4377,12 +4377,12 @@
         <v>59</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4393,103 +4393,103 @@
         <v>60</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" s="74"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="96"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="94" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="99"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="5"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
-      <c r="B34" s="107"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="96"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:18" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="73"/>
-      <c r="B35" s="107"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="99"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="79"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71"/>
       <c r="B37" s="72"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="111"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="94" t="s">
+      <c r="D38" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="96"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="109"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,11 +4506,11 @@
       <c r="A41" s="71"/>
       <c r="B41" s="72"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -4554,12 +4554,12 @@
       <c r="A45" s="71"/>
       <c r="B45" s="72"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -4567,12 +4567,12 @@
       <c r="A46" s="71"/>
       <c r="B46" s="72"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="100" t="s">
+      <c r="D46" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
@@ -4580,10 +4580,10 @@
       <c r="A47" s="71"/>
       <c r="B47" s="72"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -4591,10 +4591,10 @@
       <c r="A48" s="71"/>
       <c r="B48" s="72"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -4602,10 +4602,10 @@
       <c r="A49" s="71"/>
       <c r="B49" s="72"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,17 +4667,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="D30:G31"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D19:G21"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="D38:G39"/>
@@ -4688,6 +4677,17 @@
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:G44"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D19:G21"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="D30:G31"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F16"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4743,7 +4743,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="62"/>
       <c r="H21" s="5"/>
     </row>
@@ -4973,14 +4973,14 @@
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5146,56 +5146,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5387,7 +5387,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5595,13 +5595,13 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="62"/>
       <c r="H21" s="5"/>
     </row>
@@ -5617,14 +5617,14 @@
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5790,56 +5790,56 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6031,7 +6031,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6074,52 +6074,52 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="5"/>
       <c r="G9" s="14"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="5"/>
@@ -6146,11 +6146,11 @@
     </row>
     <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6193,11 +6193,11 @@
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6238,11 +6238,11 @@
     </row>
     <row r="21" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="129"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -6327,14 +6327,14 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
       <c r="H26" s="5"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -6437,14 +6437,14 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="5"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -6456,12 +6456,12 @@
     </row>
     <row r="33" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="5"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -6507,14 +6507,14 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="5"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -6545,14 +6545,14 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="132">
+      <c r="B38" s="130">
         <v>2</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
       <c r="H38" s="5"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -6564,14 +6564,14 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="132">
+      <c r="B39" s="130">
         <v>3</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="5"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -6617,14 +6617,14 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="134" t="s">
+      <c r="B42" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
       <c r="H42" s="5"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -6636,12 +6636,12 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
       <c r="H43" s="5"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -6653,12 +6653,12 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
       <c r="H44" s="5"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -6670,12 +6670,12 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
       <c r="H45" s="5"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -6687,12 +6687,12 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
       <c r="H46" s="5"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -6704,12 +6704,12 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
       <c r="H47" s="5"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -6721,12 +6721,12 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
       <c r="H48" s="5"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -6738,12 +6738,12 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
       <c r="H49" s="5"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -6819,13 +6819,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B42:G49"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="B15:E17"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B7:E11"/>
     <mergeCell ref="E19:G21"/>
     <mergeCell ref="B26:G26"/>
@@ -6834,6 +6827,13 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B42:G49"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="B15:E17"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6889,7 +6889,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="68">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6932,12 +6932,12 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="5"/>
@@ -6954,24 +6954,24 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7003,8 +7003,8 @@
       <c r="B13" s="24"/>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
@@ -7013,16 +7013,16 @@
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="24"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="19"/>
@@ -7080,16 +7080,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="144" t="s">
+      <c r="F21" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="146"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7105,8 +7105,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
       <c r="E23" s="19"/>
       <c r="F23" s="42"/>
       <c r="G23" s="44"/>
@@ -7115,8 +7115,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
       <c r="E24" s="19"/>
       <c r="F24" s="42"/>
       <c r="G24" s="44"/>
@@ -7125,8 +7125,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="41"/>
       <c r="F25" s="43"/>
       <c r="G25" s="45"/>
@@ -7137,8 +7137,8 @@
       <c r="B26" s="24"/>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -7147,16 +7147,16 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="24"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="24"/>
       <c r="F28" s="32"/>
       <c r="G28" s="19"/>
@@ -7335,46 +7335,46 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="140" t="s">
+      <c r="B46" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
+      <c r="B47" s="146"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,6 +7436,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B46:G47"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="B7:E7"/>
@@ -7452,10 +7456,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F27"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B46:G47"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
